--- a/data/turning_counts/int101.xlsx
+++ b/data/turning_counts/int101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E77D824-D7EC-6745-B9F7-A3EDEA61C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC08A9-D119-0349-B721-C8A5C450DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -765,9 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AC34" sqref="AC34"/>
+      <selection pane="bottomLeft" activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -856,46 +856,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="9">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>47</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>65</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
         <v>31</v>
       </c>
-      <c r="J2" s="9">
+      <c r="O2" s="9">
         <v>13</v>
       </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
       <c r="P2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S2" s="9">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T2" s="9">
         <v>0</v>
@@ -909,46 +909,46 @@
         <v>35</v>
       </c>
       <c r="C3" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
         <v>17</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>71</v>
       </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
         <v>30</v>
       </c>
-      <c r="J3" s="9">
+      <c r="O3" s="9">
         <v>13</v>
       </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
       <c r="P3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S3" s="9">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9">
         <v>0</v>
@@ -962,46 +962,46 @@
         <v>36</v>
       </c>
       <c r="C4" s="9">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>69</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
         <v>29</v>
       </c>
-      <c r="J4" s="9">
+      <c r="O4" s="9">
         <v>21</v>
       </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
       <c r="P4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <v>0</v>
@@ -1015,46 +1015,46 @@
         <v>37</v>
       </c>
       <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
         <v>39</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <v>85</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
         <v>38</v>
       </c>
-      <c r="J5" s="9">
+      <c r="O5" s="9">
         <v>19</v>
       </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
       <c r="P5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
@@ -1068,46 +1068,46 @@
         <v>38</v>
       </c>
       <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
         <v>30</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>87</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
         <v>45</v>
       </c>
-      <c r="J6" s="9">
+      <c r="O6" s="9">
         <v>19</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
       <c r="P6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" s="9">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -1121,46 +1121,46 @@
         <v>39</v>
       </c>
       <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>81</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
         <v>29</v>
       </c>
-      <c r="J7" s="9">
+      <c r="O7" s="9">
         <v>10</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
       <c r="P7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S7" s="9">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
@@ -1174,46 +1174,46 @@
         <v>40</v>
       </c>
       <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>52</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>82</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
         <v>34</v>
       </c>
-      <c r="J8" s="9">
+      <c r="O8" s="9">
         <v>15</v>
       </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
       <c r="P8" s="9">
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S8" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -1227,46 +1227,46 @@
         <v>41</v>
       </c>
       <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>16</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>112</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
         <v>39</v>
       </c>
-      <c r="J9" s="9">
+      <c r="O9" s="9">
         <v>24</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
       <c r="P9" s="9">
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S9" s="9">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
@@ -1280,46 +1280,46 @@
         <v>42</v>
       </c>
       <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>21</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
         <v>88</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>30</v>
       </c>
-      <c r="J10" s="9">
+      <c r="O10" s="9">
         <v>28</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
       <c r="P10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="9">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1333,46 +1333,46 @@
         <v>45</v>
       </c>
       <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>178</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
         <v>38</v>
       </c>
-      <c r="J11" s="9">
+      <c r="O11" s="9">
         <v>30</v>
       </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
       <c r="P11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S11" s="9">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
@@ -1386,46 +1386,46 @@
         <v>46</v>
       </c>
       <c r="C12" s="9">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>225</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
         <v>31</v>
       </c>
-      <c r="J12" s="9">
+      <c r="O12" s="9">
         <v>36</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
       <c r="P12" s="9">
         <v>0</v>
       </c>
       <c r="R12" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S12" s="9">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -1439,46 +1439,46 @@
         <v>47</v>
       </c>
       <c r="C13" s="9">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <v>46</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
         <v>205</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
         <v>41</v>
       </c>
-      <c r="J13" s="9">
+      <c r="O13" s="9">
         <v>40</v>
       </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
       <c r="P13" s="9">
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S13" s="9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -1492,46 +1492,46 @@
         <v>48</v>
       </c>
       <c r="C14" s="9">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>41</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
         <v>226</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
         <v>36</v>
       </c>
-      <c r="J14" s="9">
+      <c r="O14" s="9">
         <v>35</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
       <c r="P14" s="9">
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S14" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -1545,46 +1545,46 @@
         <v>49</v>
       </c>
       <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9">
+        <v>75</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>35</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
         <v>199</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
         <v>38</v>
       </c>
-      <c r="J15" s="9">
+      <c r="O15" s="9">
         <v>43</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
       <c r="P15" s="9">
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S15" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -1598,46 +1598,46 @@
         <v>50</v>
       </c>
       <c r="C16" s="9">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9">
+        <v>81</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
+      <c r="I16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="J16" s="9">
         <v>221</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
         <v>50</v>
       </c>
-      <c r="J16" s="9">
+      <c r="O16" s="9">
         <v>48</v>
       </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
       <c r="P16" s="9">
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S16" s="9">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
@@ -1651,46 +1651,46 @@
         <v>51</v>
       </c>
       <c r="C17" s="9">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <v>18</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
         <v>154</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
         <v>41</v>
       </c>
-      <c r="J17" s="9">
+      <c r="O17" s="9">
         <v>25</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
       <c r="P17" s="9">
         <v>0</v>
       </c>
       <c r="R17" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S17" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
@@ -1704,46 +1704,46 @@
         <v>52</v>
       </c>
       <c r="C18" s="9">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
         <v>147</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
         <v>33</v>
       </c>
-      <c r="J18" s="9">
+      <c r="O18" s="9">
         <v>45</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
       <c r="P18" s="9">
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="S18" s="9">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -1762,12 +1762,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1784,7 +1784,7 @@
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -1849,45 +1849,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
       <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
       <c r="O2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="9">
         <v>0</v>
@@ -1901,32 +1901,33 @@
       <c r="U2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
         <v>6</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
       <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
@@ -1943,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9">
         <v>0</v>
@@ -1954,52 +1955,53 @@
       <c r="U3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
       <c r="O4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <v>0</v>
@@ -2007,41 +2009,42 @@
       <c r="U4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
         <v>3</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
       <c r="O5" s="9">
         <v>0</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
@@ -2060,43 +2063,44 @@
       <c r="U5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>9</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9">
         <v>0</v>
@@ -2105,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -2113,41 +2117,42 @@
       <c r="U6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
       <c r="O7" s="9">
         <v>0</v>
       </c>
@@ -2155,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
@@ -2166,52 +2171,53 @@
       <c r="U7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>10</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
         <v>4</v>
       </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="9">
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -2219,32 +2225,33 @@
       <c r="U8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
@@ -2252,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
@@ -2264,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
@@ -2272,52 +2279,53 @@
       <c r="U9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
       <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>6</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>4</v>
       </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -2325,13 +2333,14 @@
       <c r="U10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -2346,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -2358,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="9">
         <v>0</v>
@@ -2378,8 +2387,9 @@
       <c r="U11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -2387,35 +2397,35 @@
         <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>6</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
         <v>2</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
       <c r="P12" s="9">
         <v>0</v>
       </c>
@@ -2423,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -2431,41 +2441,42 @@
       <c r="U12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
       <c r="O13" s="9">
         <v>0</v>
       </c>
@@ -2473,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -2484,44 +2495,45 @@
       <c r="U13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
         <v>8</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
         <v>4</v>
       </c>
-      <c r="J14" s="9">
+      <c r="O14" s="9">
         <v>2</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
       <c r="P14" s="9">
         <v>0</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -2537,25 +2549,26 @@
       <c r="U14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -2573,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="9">
         <v>0</v>
@@ -2582,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -2590,28 +2603,29 @@
       <c r="U15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="9">
         <v>1</v>
@@ -2623,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="9">
         <v>0</v>
@@ -2635,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
@@ -2643,41 +2657,42 @@
       <c r="U16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
       <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
         <v>3</v>
       </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
       <c r="O17" s="9">
         <v>0</v>
       </c>
@@ -2696,8 +2711,9 @@
       <c r="U17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2705,23 +2721,23 @@
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
@@ -2729,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="9">
         <v>0</v>
@@ -2741,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="9">
         <v>0</v>
@@ -2749,32 +2765,33 @@
       <c r="U18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
@@ -2794,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
         <v>0</v>
@@ -2802,8 +2819,9 @@
       <c r="U19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -2826,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -2855,6 +2873,7 @@
       <c r="U20" s="9">
         <v>0</v>
       </c>
+      <c r="V20" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/data/turning_counts/int101.xlsx
+++ b/data/turning_counts/int101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC08A9-D119-0349-B721-C8A5C450DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDE884-98CE-BD4E-AF6B-F03AA7F3E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Arial"/>
@@ -227,6 +227,13 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8.25"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +262,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -314,6 +321,10 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -765,9 +776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AL25" sqref="AL25"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -923,8 +934,8 @@
       <c r="H3" s="9">
         <v>17</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
+      <c r="I3" s="15">
+        <v>1</v>
       </c>
       <c r="J3" s="9">
         <v>71</v>
@@ -976,8 +987,8 @@
       <c r="H4" s="9">
         <v>20</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
+      <c r="I4" s="15">
+        <v>1</v>
       </c>
       <c r="J4" s="9">
         <v>69</v>
@@ -1029,8 +1040,8 @@
       <c r="H5" s="9">
         <v>39</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
+      <c r="I5" s="15">
+        <v>1</v>
       </c>
       <c r="J5" s="9">
         <v>85</v>
@@ -1082,8 +1093,8 @@
       <c r="H6" s="9">
         <v>30</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
+      <c r="I6" s="15">
+        <v>1</v>
       </c>
       <c r="J6" s="9">
         <v>87</v>
@@ -1135,8 +1146,8 @@
       <c r="H7" s="9">
         <v>17</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
+      <c r="I7" s="15">
+        <v>1</v>
       </c>
       <c r="J7" s="9">
         <v>81</v>
@@ -1188,8 +1199,8 @@
       <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
+      <c r="I8" s="15">
+        <v>1</v>
       </c>
       <c r="J8" s="9">
         <v>82</v>
@@ -1241,8 +1252,8 @@
       <c r="H9" s="9">
         <v>16</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
+      <c r="I9" s="15">
+        <v>1</v>
       </c>
       <c r="J9" s="9">
         <v>112</v>
@@ -1347,8 +1358,8 @@
       <c r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
+      <c r="I11" s="15">
+        <v>1</v>
       </c>
       <c r="J11" s="9">
         <v>178</v>
@@ -1400,8 +1411,8 @@
       <c r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
+      <c r="I12" s="15">
+        <v>1</v>
       </c>
       <c r="J12" s="9">
         <v>225</v>
@@ -1468,7 +1479,7 @@
       <c r="N13" s="9">
         <v>41</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="15">
         <v>40</v>
       </c>
       <c r="P13" s="9">
@@ -1506,8 +1517,8 @@
       <c r="H14" s="9">
         <v>41</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
+      <c r="I14" s="15">
+        <v>1</v>
       </c>
       <c r="J14" s="9">
         <v>226</v>
@@ -1521,7 +1532,7 @@
       <c r="N14" s="9">
         <v>36</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="15">
         <v>35</v>
       </c>
       <c r="P14" s="9">
@@ -1559,8 +1570,8 @@
       <c r="H15" s="9">
         <v>35</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
+      <c r="I15" s="15">
+        <v>1</v>
       </c>
       <c r="J15" s="9">
         <v>199</v>
@@ -1665,8 +1676,8 @@
       <c r="H17" s="9">
         <v>18</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
+      <c r="I17" s="15">
+        <v>1</v>
       </c>
       <c r="J17" s="9">
         <v>154</v>
@@ -1718,8 +1729,8 @@
       <c r="H18" s="9">
         <v>16</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
+      <c r="I18" s="15">
+        <v>1</v>
       </c>
       <c r="J18" s="9">
         <v>147</v>
@@ -1764,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
       <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>

--- a/data/turning_counts/int101.xlsx
+++ b/data/turning_counts/int101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\turning_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDE884-98CE-BD4E-AF6B-F03AA7F3E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56441903-345D-42DA-A09A-06C6AC158826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Bank3" sheetId="4" r:id="rId4"/>
     <sheet name="Bank4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="80000" iterateCount="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -679,14 +692,14 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
     <col min="3" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -710,7 +723,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -718,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,12 +739,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -739,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -747,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -755,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -774,14 +787,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13:O14"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -797,7 +810,7 @@
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -862,7 +875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -915,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -968,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -1286,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -1339,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1551,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -1710,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -1761,6 +1774,114 @@
       </c>
       <c r="U18" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9">
+        <f>SUM(C6:C9)</f>
+        <v>27</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D20:O20" si="0">SUM(D6:D9)</f>
+        <v>209</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="9">
+        <f>SUM(C15:C18)</f>
+        <v>150</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" ref="D21:O21" si="1">SUM(D15:D18)</f>
+        <v>303</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1902,7 @@
       <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -1795,7 +1916,7 @@
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +2035,7 @@
       </c>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +2089,7 @@
       </c>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2143,7 @@
       </c>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -2076,7 +2197,7 @@
       </c>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -2130,7 +2251,7 @@
       </c>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2184,7 +2305,7 @@
       </c>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -2238,7 +2359,7 @@
       </c>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2292,7 +2413,7 @@
       </c>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2467,7 @@
       </c>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -2400,7 +2521,7 @@
       </c>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -2454,7 +2575,7 @@
       </c>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
@@ -2508,7 +2629,7 @@
       </c>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -2562,7 +2683,7 @@
       </c>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2616,7 +2737,7 @@
       </c>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2791,7 @@
       </c>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
@@ -2724,7 +2845,7 @@
       </c>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
@@ -2778,7 +2899,7 @@
       </c>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>52</v>
       </c>
@@ -2832,7 +2953,7 @@
       </c>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -2903,14 +3024,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -2984,14 +3105,14 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
